--- a/biology/Botanique/Uncaria_rhynchophylla/Uncaria_rhynchophylla.xlsx
+++ b/biology/Botanique/Uncaria_rhynchophylla/Uncaria_rhynchophylla.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Uncaria rhynchophylla, le Gou teng[1], est une espèce de plantes à fleurs de la famille des Rubiaceae. Cette liane est utilisée dans la pharmacopée traditionnelle chinoise pour clarifier le foie et abaisser le Yang.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Uncaria rhynchophylla, le Gou teng, est une espèce de plantes à fleurs de la famille des Rubiaceae. Cette liane est utilisée dans la pharmacopée traditionnelle chinoise pour clarifier le foie et abaisser le Yang.
 Elle est originaire de Chine, du Japon, du Bangladesh, d'Inde, du Laos, de Birmanie, de Thaïlande et du Viêt Nam.
 </t>
         </is>
@@ -512,7 +524,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Nauclea rhynchophylla Miq.
 Ourouparia rhynchophylla (Miq.) Matsum.
